--- a/biology/Botanique/Rose_de_carême/Rose_de_carême.xlsx
+++ b/biology/Botanique/Rose_de_carême/Rose_de_carême.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rose_de_car%C3%AAme</t>
+          <t>Rose_de_carême</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helleborus orientalis
 La rose de carême, Helleborus orientalis, est une espèce de plantes à fleurs de la famille des Ranunculaceae et de la section Helleborastrum du genre Helleborus, qui atteint 45 cm lors de la floraison.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rose_de_car%C3%AAme</t>
+          <t>Rose_de_carême</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les feuilles basilaires, pédalées à 6 à 10 segments, sont persistantes en climat doux.
 Les fleurs de couleur variable ont un diamètre de 6 à 7 cm. On distingue trois sous-espèces :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rose_de_car%C3%AAme</t>
+          <t>Rose_de_carême</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Hybrides d’orientalis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous le nom Helleborus ×hybridus Voss sont classées les sélections de Helleborus orientalis à fleurs blanches, roses ou ponctuées, et ses hybrides fertiles avec notamment Helleborus cyclophyllus, Helleborus odorus, Helleborus multifidus subsp. bocconei et Helleborus torquatus.
 La rose de Noël pourpre, Helleborus ‘Early Purple’ (Syn. Helleborus ‘Atrorubens’ – à ne pas confondre avec l’espèce Helleborus atrorubens !), une sélection à floraison précoce de Helleborus orientalis subsp. abchasicus, est certainement à préférer à la « vraie » rose de Noël, car elle est de culture facile et, lorsque le temps est clément, elle fleurit dès la mi-décembre – donc à Noël.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rose_de_car%C3%AAme</t>
+          <t>Rose_de_carême</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sol doit être léger, riche en humus et retenir l’humidité, mais être bien drainé. Les pieds humides en hiver sont funestes. Quoique la plupart des espèces proviennent de situations en sol calcaire, les cultivars poussent également bien en sol acide. Les hellébores n’aiment pas être en plein soleil en été. Une fois bien installés, ils n’aiment pas être dérangés ou transplantés.
 Les hybrides à fleurs jaunes, sont sensibles aux maladies cryptogamiques, qui provoquent des taches noires sur les feuilles. Lorsque l’infection est sévère, elle peut aboutir à la mort de la plante.
